--- a/Planning/Planning04.xlsx
+++ b/Planning/Planning04.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Analyse</t>
   </si>
@@ -223,21 +223,12 @@
     <t>Création du diagramme de cas d'utilisations</t>
   </si>
   <si>
-    <t>Présentation d'un prototype</t>
-  </si>
-  <si>
-    <t>version 4</t>
-  </si>
-  <si>
     <t>Récupération des activités de l'utilisateur</t>
   </si>
   <si>
     <t>Enregistrement des activités dans un fichier log</t>
   </si>
   <si>
-    <t>Présentation du fichier log</t>
-  </si>
-  <si>
     <t>Création du dashboard desktop</t>
   </si>
   <si>
@@ -248,6 +239,24 @@
   </si>
   <si>
     <t>Ajout des autres fonctionnalités si le temps le permet</t>
+  </si>
+  <si>
+    <t>Créer l'installeur</t>
+  </si>
+  <si>
+    <t>Rendu de l'installeur</t>
+  </si>
+  <si>
+    <t>Prototype du fichier log</t>
+  </si>
+  <si>
+    <t>Prototype du dashboard</t>
+  </si>
+  <si>
+    <t>Prototype du dashboard web</t>
+  </si>
+  <si>
+    <t>version 5</t>
   </si>
 </sst>
 </file>
@@ -328,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -814,19 +823,6 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -839,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -985,23 +981,83 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1009,98 +1065,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1416,7 +1415,7 @@
   <dimension ref="A2:AE152"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1431,58 +1430,58 @@
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="59" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="61" t="s">
+      <c r="L4" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="59" t="s">
+      <c r="N4" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="59" t="s">
+      <c r="S4" s="70" t="s">
         <v>32</v>
       </c>
       <c r="T4" s="9"/>
@@ -1491,86 +1490,86 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="10" t="s">
         <v>6</v>
       </c>
@@ -1619,15 +1618,15 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -1641,7 +1640,7 @@
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="25"/>
-      <c r="S9" s="55" t="s">
+      <c r="S9" s="75" t="s">
         <v>41</v>
       </c>
       <c r="T9" s="9"/>
@@ -1650,13 +1649,13 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="56"/>
-      <c r="B10" s="66" t="s">
+      <c r="A10" s="76"/>
+      <c r="B10" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="16"/>
       <c r="G10" s="11"/>
       <c r="H10" s="34"/>
@@ -1670,20 +1669,20 @@
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="26"/>
-      <c r="S10" s="56"/>
+      <c r="S10" s="76"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
-      <c r="B11" s="66" t="s">
+      <c r="A11" s="76"/>
+      <c r="B11" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="16"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -1697,16 +1696,16 @@
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="26"/>
-      <c r="S11" s="56"/>
+      <c r="S11" s="76"/>
     </row>
     <row r="12" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
-      <c r="B12" s="66" t="s">
+      <c r="A12" s="76"/>
+      <c r="B12" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -1720,16 +1719,16 @@
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="27"/>
-      <c r="S12" s="56"/>
+      <c r="S12" s="76"/>
     </row>
     <row r="13" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
-      <c r="B13" s="66" t="s">
+      <c r="A13" s="76"/>
+      <c r="B13" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="19"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
@@ -1743,26 +1742,26 @@
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="27"/>
-      <c r="S13" s="56"/>
+      <c r="S13" s="76"/>
     </row>
     <row r="14" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="69" t="s">
+      <c r="A14" s="77"/>
+      <c r="B14" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
       <c r="F14" s="19"/>
       <c r="G14" s="20" t="s">
         <v>48</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="80" t="s">
+      <c r="J14" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="81"/>
+      <c r="K14" s="51"/>
       <c r="L14" s="43"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
@@ -1770,27 +1769,27 @@
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="27"/>
-      <c r="S14" s="56"/>
+      <c r="S14" s="76"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
       <c r="F15" s="22"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="35"/>
-      <c r="J15" s="79"/>
+      <c r="J15" s="49"/>
       <c r="K15" s="15"/>
       <c r="L15" s="41"/>
       <c r="M15" s="15"/>
@@ -1799,20 +1798,20 @@
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="25"/>
-      <c r="S15" s="56"/>
+      <c r="S15" s="76"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
     </row>
     <row r="16" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56"/>
-      <c r="B16" s="66" t="s">
+      <c r="A16" s="76"/>
+      <c r="B16" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="68"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="36"/>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
@@ -1826,16 +1825,16 @@
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
       <c r="R16" s="39"/>
-      <c r="S16" s="56"/>
+      <c r="S16" s="76"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="66" t="s">
+      <c r="A17" s="76"/>
+      <c r="B17" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="16"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -1849,20 +1848,20 @@
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="26"/>
-      <c r="S17" s="56"/>
+      <c r="S17" s="76"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
     </row>
     <row r="18" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="66" t="s">
+      <c r="A18" s="76"/>
+      <c r="B18" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="16"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -1876,22 +1875,22 @@
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="26"/>
-      <c r="S18" s="56"/>
+      <c r="S18" s="76"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="78"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
       <c r="F19" s="22"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -1905,20 +1904,20 @@
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="25"/>
-      <c r="S19" s="56"/>
+      <c r="S19" s="76"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
-      <c r="B20" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="16"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -1932,20 +1931,20 @@
       <c r="P20" s="34"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="26"/>
-      <c r="S20" s="56"/>
+      <c r="S20" s="76"/>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:23" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="56"/>
-      <c r="B21" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="16"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -1955,22 +1954,22 @@
       <c r="L21" s="47"/>
       <c r="M21" s="29"/>
       <c r="N21" s="32" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O21" s="34"/>
       <c r="P21" s="34"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="40"/>
-      <c r="S21" s="57"/>
+      <c r="S21" s="84"/>
     </row>
     <row r="22" spans="1:23" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="56"/>
-      <c r="B22" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="16"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -1982,24 +1981,24 @@
       <c r="N22" s="29"/>
       <c r="O22" s="29"/>
       <c r="P22" s="32" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="Q22" s="37"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="57"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="84"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
     </row>
     <row r="23" spans="1:23" s="9" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="56"/>
-      <c r="B23" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="68"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="16"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -2012,19 +2011,19 @@
       <c r="O23" s="29"/>
       <c r="P23" s="32"/>
       <c r="Q23" s="32" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="R23" s="40"/>
-      <c r="S23" s="57"/>
+      <c r="S23" s="84"/>
     </row>
     <row r="24" spans="1:23" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56"/>
-      <c r="B24" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="68"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
       <c r="F24" s="16"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -2038,16 +2037,16 @@
       <c r="P24" s="32"/>
       <c r="Q24" s="32"/>
       <c r="R24" s="40"/>
-      <c r="S24" s="57"/>
+      <c r="S24" s="84"/>
     </row>
     <row r="25" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56"/>
-      <c r="B25" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="77"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="16"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -2056,25 +2055,27 @@
       <c r="K25" s="12"/>
       <c r="L25" s="42"/>
       <c r="M25" s="34"/>
-      <c r="N25" s="29"/>
+      <c r="N25" s="34"/>
       <c r="O25" s="32"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
-      <c r="R25" s="83" t="s">
+      <c r="R25" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="S25" s="57"/>
+      <c r="S25" s="84"/>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="56"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
+    <row r="26" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="76"/>
+      <c r="B26" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="16"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
@@ -2083,23 +2084,25 @@
       <c r="K26" s="12"/>
       <c r="L26" s="42"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="57"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="S26" s="84"/>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
     </row>
     <row r="27" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
       <c r="F27" s="19"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -2110,25 +2113,25 @@
       <c r="M27" s="21"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="84"/>
-      <c r="S27" s="57"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="84"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
     </row>
     <row r="28" spans="1:23" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="65"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="72"/>
       <c r="F28" s="22"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -2141,17 +2144,17 @@
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="30"/>
-      <c r="R28" s="85"/>
-      <c r="S28" s="57"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="84"/>
     </row>
     <row r="29" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="66" t="s">
+      <c r="A29" s="76"/>
+      <c r="B29" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="68"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="59"/>
       <c r="F29" s="16"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -2164,15 +2167,15 @@
       <c r="O29" s="12"/>
       <c r="P29" s="37"/>
       <c r="Q29" s="31"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="57"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="84"/>
     </row>
     <row r="30" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="56"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="68"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="59"/>
       <c r="F30" s="16"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -2186,14 +2189,14 @@
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
       <c r="R30" s="40"/>
-      <c r="S30" s="57"/>
+      <c r="S30" s="84"/>
     </row>
     <row r="31" spans="1:23" s="9" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="71"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="73"/>
       <c r="F31" s="17"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -2206,35 +2209,35 @@
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="57"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="84"/>
     </row>
     <row r="32" spans="1:23" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="51"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="80"/>
       <c r="R32" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="S32" s="58"/>
+      <c r="S32" s="77"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="I33" s="2"/>
@@ -5213,19 +5216,22 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F32:Q32"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="S9:S32"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
     <mergeCell ref="J4:J7"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
@@ -5242,25 +5248,22 @@
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F32:Q32"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="S9:S32"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" scale="58" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>